--- a/计算机文件属性汇总(uestudio16进制).xlsx
+++ b/计算机文件属性汇总(uestudio16进制).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23850" windowHeight="12375"/>
+    <workbookView windowWidth="25125" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="1480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1525">
   <si>
     <t>计算机文件格式</t>
   </si>
@@ -1775,6 +1775,12 @@
     <t>任天堂wii平台的档案文件</t>
   </si>
   <si>
+    <t>斗真传、星球大战原力释放2</t>
+  </si>
+  <si>
+    <t>任天堂toolbox</t>
+  </si>
+  <si>
     <t>POD</t>
   </si>
   <si>
@@ -1784,1381 +1790,1381 @@
     <t>POD5</t>
   </si>
   <si>
-    <t>微软xbox360平台的一种文件打包方式</t>
+    <t>任天堂wii平台的一种文件打包方式</t>
   </si>
   <si>
     <t>星球大战原力释放2</t>
   </si>
   <si>
+    <t>POD.bms</t>
+  </si>
+  <si>
+    <t>VPK</t>
+  </si>
+  <si>
+    <t>PSV游戏rom的格式</t>
+  </si>
+  <si>
+    <t>刀剑神域虚空断章(psv)</t>
+  </si>
+  <si>
+    <t>此vpk非彼vpk，起源引擎cs的vpk不能这样解</t>
+  </si>
+  <si>
+    <t>bin</t>
+  </si>
+  <si>
+    <t>PS1游戏的一种rom格式</t>
+  </si>
+  <si>
+    <t>最终幻想8</t>
+  </si>
+  <si>
+    <t>UltraISO</t>
+  </si>
+  <si>
+    <t>img</t>
+  </si>
+  <si>
+    <t>PS1游戏bin镜像解包后的一种文件</t>
+  </si>
+  <si>
+    <t>jpsxdec、软碟通</t>
+  </si>
+  <si>
+    <t>ahx</t>
+  </si>
+  <si>
+    <t>80 00 00 20</t>
+  </si>
+  <si>
+    <t>€..</t>
+  </si>
+  <si>
+    <t>afs文件里解出的一种音频格式</t>
+  </si>
+  <si>
+    <t>命运石之门(PSP)</t>
+  </si>
+  <si>
+    <t>vgmstream</t>
+  </si>
+  <si>
+    <t>1F 8B 08 08</t>
+  </si>
+  <si>
+    <t>.？.(乱码只显示3位)</t>
+  </si>
+  <si>
+    <t>一骑当先 交叉冲击(PSP平台)</t>
+  </si>
+  <si>
+    <t>astc</t>
+  </si>
+  <si>
+    <t>13 AB A1 5C</t>
+  </si>
+  <si>
+    <t>cocos2d游戏的一种图片格式</t>
+  </si>
+  <si>
+    <t>神行少女</t>
+  </si>
+  <si>
+    <t>使用文件多开器打开TexturePackerGui再一个个的转换成png</t>
+  </si>
+  <si>
+    <t>41 52 43 34</t>
+  </si>
+  <si>
+    <t>ARC4</t>
+  </si>
+  <si>
+    <t>少女爱上姐姐~2位艾露达</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>4B 49 46 00</t>
+  </si>
+  <si>
+    <t>KIF.</t>
+  </si>
+  <si>
+    <t>catsystem引擎的galgame游戏的打包格式</t>
+  </si>
+  <si>
+    <t>尚有佳蜜伴恋心、魔女的花园</t>
+  </si>
+  <si>
+    <t>此文件已加密，使用garbro解包，要检查此游戏的exe启动程序方可解包</t>
+  </si>
+  <si>
+    <t>扩展名不重要</t>
+  </si>
+  <si>
+    <t>50 41 43 4B</t>
+  </si>
+  <si>
+    <t>PACK</t>
+  </si>
+  <si>
+    <t>热带美酒</t>
+  </si>
+  <si>
+    <t>p和mus文件的文件头都是PACK，使用garbro解包，所以这种文件不看扩展名</t>
+  </si>
+  <si>
+    <t>最终幻想系列的游戏不适用</t>
+  </si>
+  <si>
+    <t>nsp</t>
+  </si>
+  <si>
+    <t>50 46 53 30</t>
+  </si>
+  <si>
+    <t>PFS0</t>
+  </si>
+  <si>
+    <t>Switch游戏的rom格式</t>
+  </si>
+  <si>
+    <t>王者荣耀、符文工坊5</t>
+  </si>
+  <si>
+    <t>NSCB转换成xci或者nsz格式，也可以解包获得nca文件，NSGManager可直接解包</t>
+  </si>
+  <si>
+    <t>nsz</t>
+  </si>
+  <si>
+    <t>NSCB转换成nsp格式，NSGManager可直接解包</t>
+  </si>
+  <si>
+    <t>xcz</t>
+  </si>
+  <si>
+    <t>NSCB转换成xci格式，NSGManager可直接解包</t>
+  </si>
+  <si>
+    <t>xci</t>
+  </si>
+  <si>
+    <t>NSCB将nsp或者xcz可转换成xci，NSGManager和hactool可以解包</t>
+  </si>
+  <si>
+    <t>新工具任天堂toolbox可以解没有加密的xci的rom</t>
+  </si>
+  <si>
+    <t>nca</t>
+  </si>
+  <si>
+    <t>Switch游戏nsp或xci解包的文件</t>
+  </si>
+  <si>
+    <t>NSGManager和hactool可以解包</t>
+  </si>
+  <si>
+    <t>tid</t>
+  </si>
+  <si>
+    <t>54 49 44</t>
+  </si>
+  <si>
+    <t>TID</t>
+  </si>
+  <si>
+    <t>地雷社游戏pac文件解包的一种图片格式</t>
+  </si>
+  <si>
+    <t>涅普缇努海王星系列</t>
+  </si>
+  <si>
+    <t>拖到nr2_tidtool上，建议使用文件多开器批量解包，解不开的可用Multi Extractor解</t>
+  </si>
+  <si>
+    <t>也可以尝试使用noesis解，有一种bc7纹理需要用bms脚本解</t>
+  </si>
+  <si>
+    <t>mpk</t>
+  </si>
+  <si>
+    <t>4D 50 4B</t>
+  </si>
+  <si>
+    <t>MPK</t>
+  </si>
+  <si>
+    <t>一种游戏打包格式</t>
+  </si>
+  <si>
+    <t>命运石之门(steam版)、秋之回忆无垢少女致最爱的你(ps4)</t>
+  </si>
+  <si>
+    <t>garbro可以解包，和网易的mpk不一样，psv版命运石之门的mpk加密了</t>
+  </si>
+  <si>
+    <t>自制脚本二进制提取大法</t>
+  </si>
+  <si>
+    <t>aa3</t>
+  </si>
+  <si>
+    <t>65 61 33</t>
+  </si>
+  <si>
+    <t>ea3</t>
+  </si>
+  <si>
+    <t>pam视频分离的音频格式</t>
+  </si>
+  <si>
+    <t>sdat</t>
+  </si>
+  <si>
+    <t>53 44 41 54</t>
+  </si>
+  <si>
+    <t>SDAT</t>
+  </si>
+  <si>
+    <t>nds游戏的音频打包格式，内部包含多个音频</t>
+  </si>
+  <si>
+    <t>VG MusicStudio或者vgmtrans解包</t>
+  </si>
+  <si>
+    <t>strm</t>
+  </si>
+  <si>
+    <t>53 54 52 4D</t>
+  </si>
+  <si>
+    <t>STRM</t>
+  </si>
+  <si>
+    <t>使用vgm工具箱解包sdat获得的一种音频格式</t>
+  </si>
+  <si>
+    <t>swav</t>
+  </si>
+  <si>
+    <t>53 57 41 56</t>
+  </si>
+  <si>
+    <t>SWAV</t>
+  </si>
+  <si>
+    <t>mca</t>
+  </si>
+  <si>
+    <t>4D 41 44 50</t>
+  </si>
+  <si>
+    <t>MADP</t>
+  </si>
+  <si>
+    <t>逆转裁判5、怪物猎人物语</t>
+  </si>
+  <si>
+    <t>02 00 00 00 01 00 00 01</t>
+  </si>
+  <si>
+    <t>........</t>
+  </si>
+  <si>
+    <t>怪物猎人</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>4D 54 68 64</t>
+  </si>
+  <si>
+    <t>MThd</t>
+  </si>
+  <si>
+    <t>nds、gba游戏解包的一种音频格式</t>
+  </si>
+  <si>
+    <t>vgmtrans解包nds，使用foobar2000转换</t>
+  </si>
+  <si>
+    <t>XA</t>
+  </si>
+  <si>
+    <t>PS1的一种打包格式</t>
+  </si>
+  <si>
+    <t>跨过我的尸体</t>
+  </si>
+  <si>
+    <t>jpsxdec，有些游戏可提取出音频，有些游戏无法提取</t>
+  </si>
+  <si>
+    <t>vab</t>
+  </si>
+  <si>
+    <t>70 42 41 56</t>
+  </si>
+  <si>
+    <t>pBAV</t>
+  </si>
+  <si>
+    <t>PS1的一种音频打包格式</t>
+  </si>
+  <si>
+    <t>游戏王</t>
+  </si>
+  <si>
+    <t>bwav</t>
+  </si>
+  <si>
+    <t>42 57 41 56</t>
+  </si>
+  <si>
+    <t>BWAV</t>
+  </si>
+  <si>
+    <t>switch游戏的一种音频格式</t>
+  </si>
+  <si>
+    <t>塞尔达传说：王国之泪</t>
+  </si>
+  <si>
+    <t>ktsl2stbin</t>
+  </si>
+  <si>
+    <t>4B 54 53 52 02 94 DD FC</t>
+  </si>
+  <si>
+    <t>KTSR.斴？</t>
+  </si>
+  <si>
+    <t>光荣特库摩的一种音频打包格式</t>
+  </si>
+  <si>
+    <t>符文工坊2(Switch)、仁王(ps4)</t>
+  </si>
+  <si>
+    <t>使用vgm工具箱的Advanced Cutter/Offset Finder的KTSS file解包，或者kvs和kns批量提取.py</t>
+  </si>
+  <si>
+    <t>如果是ps4平台的可以用vgm工具箱或者我的脚本可以提取出at3格式的音频</t>
+  </si>
+  <si>
+    <t>ktsl2asbin</t>
+  </si>
+  <si>
+    <t>4B 54 53 52 77 7B 48 1A 01 00</t>
+  </si>
+  <si>
+    <t>KTSRw{H...</t>
+  </si>
+  <si>
+    <t>光荣特库摩的一种音频打包格式或ktsl2stbin的索引文件</t>
+  </si>
+  <si>
+    <t>foobar2000可以直接播放并转换，经测试无论是switch还是ps4都可以直接播放</t>
+  </si>
+  <si>
+    <t>同名不同后缀stbin文件较大，类似acb和awb的关系</t>
+  </si>
+  <si>
+    <t>ktss/kns</t>
+  </si>
+  <si>
+    <t>4B 54 53 53</t>
+  </si>
+  <si>
+    <t>KTSS</t>
+  </si>
+  <si>
+    <t>光荣特库摩ktsl2stbin文件解包的音频格式</t>
+  </si>
+  <si>
+    <t>符文工坊2(Switch)</t>
+  </si>
+  <si>
+    <t>foobar2000、vgmstream</t>
+  </si>
+  <si>
+    <t>mg2</t>
+  </si>
+  <si>
+    <t>4D 49 43 4F 43 47 30 31</t>
+  </si>
+  <si>
+    <t>MICOCG01</t>
+  </si>
+  <si>
+    <t>一种未知的图片格式</t>
+  </si>
+  <si>
+    <t>绝对服从公主姬辱革命录</t>
+  </si>
+  <si>
+    <t>garbro将其转换成png</t>
+  </si>
+  <si>
+    <t>uasset</t>
+  </si>
+  <si>
+    <t>C1 83 2A 9E</t>
+  </si>
+  <si>
+    <t>虚幻引擎游戏的资产文件或索引文件</t>
+  </si>
+  <si>
+    <t>幻塔、魔道兵装等虚幻4游戏</t>
+  </si>
+  <si>
+    <t>fmodel或者umodel</t>
+  </si>
+  <si>
+    <t>文件头乱码，辨别它的方法是第三行显示的文本None</t>
+  </si>
+  <si>
+    <t>moflex</t>
+  </si>
+  <si>
+    <t>4C 32</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>3DS游戏的视频打包格式</t>
+  </si>
+  <si>
+    <t>重装机兵4、逆转裁判6</t>
+  </si>
+  <si>
+    <t>ffmpeg、mobius</t>
+  </si>
+  <si>
+    <t>有些游戏用ffmpeg无法转换，下载个mobius就可以了</t>
+  </si>
+  <si>
+    <t>adpcm</t>
+  </si>
+  <si>
+    <t>Trinoline(Switch)、赛马娘PrettyDerby(switch)</t>
+  </si>
+  <si>
+    <t>opus</t>
+  </si>
+  <si>
+    <t>恋爱秘仪</t>
+  </si>
+  <si>
+    <t>vgm工具箱、foobar2000、ffmpeg、格式工厂</t>
+  </si>
+  <si>
+    <t>01 00 00 80(字节码取前四位)</t>
+  </si>
+  <si>
+    <t>任天堂Switch平台的一种压缩音频格式，实际上lopus格式</t>
+  </si>
+  <si>
+    <t>月姬重制版(Switch)</t>
+  </si>
+  <si>
+    <t>vgmstream或者改后缀名为lopus使用foobar2000</t>
+  </si>
+  <si>
+    <t>由哔哩哔哩up主暮光暗愈者提供的方法成功解开了这种opus格式</t>
+  </si>
+  <si>
+    <t>69 64 73 6B 61 33 32</t>
+  </si>
+  <si>
+    <t>idska32</t>
+  </si>
+  <si>
+    <t>InnoUnp技术打包的游戏文件</t>
+  </si>
+  <si>
+    <t>Trinoline(pc破解版)</t>
+  </si>
+  <si>
+    <t>使用同目录的exe执行程序安装</t>
+  </si>
+  <si>
+    <t>paz</t>
+  </si>
+  <si>
+    <t>minori社galgame游戏的加密文件</t>
+  </si>
+  <si>
+    <t>使用fuckpaz解包</t>
+  </si>
+  <si>
+    <t>45 4E 44 49 4C 54 4C 45</t>
+  </si>
+  <si>
+    <t>ENDILTLE</t>
+  </si>
+  <si>
+    <t>Artdink游戏的打包格式</t>
+  </si>
+  <si>
+    <t>伪恋出嫁、刀剑神域失落之歌、刀剑神域千年黄昏</t>
+  </si>
+  <si>
+    <t>特殊的脚本解包,此apk非彼apk，不要把它当做安卓程序安装包</t>
+  </si>
+  <si>
+    <t>dragon_ball_z_boz.bms或者apk解包工具</t>
+  </si>
+  <si>
+    <t>hfs</t>
+  </si>
+  <si>
+    <t>世纪天成代理的洛奇英雄传的一种文件打包格式</t>
+  </si>
+  <si>
+    <t>洛奇英雄传</t>
+  </si>
+  <si>
+    <t>HFSExtract</t>
+  </si>
+  <si>
+    <t>cmf</t>
+  </si>
+  <si>
+    <t>世纪天成代理的封印者的一种文件打包格式</t>
+  </si>
+  <si>
+    <t>封印者</t>
+  </si>
+  <si>
+    <t>closers_cmf_unpack_0.4.bms脚本，使用配套的批处理解包</t>
+  </si>
+  <si>
+    <t>aix</t>
+  </si>
+  <si>
+    <t>47 49 58 46</t>
+  </si>
+  <si>
+    <t>AIXF</t>
+  </si>
+  <si>
+    <t>SFD视频分离的一种音频格式</t>
+  </si>
+  <si>
+    <t>战场的女武神</t>
+  </si>
+  <si>
+    <t>csd</t>
+  </si>
+  <si>
+    <t>43 53 42 44</t>
+  </si>
+  <si>
+    <t>CSBD</t>
+  </si>
+  <si>
+    <t>未知的加密文件，存储着adx格式的音频文件</t>
+  </si>
+  <si>
+    <t>vgm工具箱以adx模式解包</t>
+  </si>
+  <si>
+    <t>cpz</t>
+  </si>
+  <si>
+    <t>43 50 5A</t>
+  </si>
+  <si>
+    <t>CPZ</t>
+  </si>
+  <si>
+    <t>紫社的文件打包方式</t>
+  </si>
+  <si>
+    <t>Amatsutsumi(天津罪)</t>
+  </si>
+  <si>
+    <t>arc_unpacker</t>
+  </si>
+  <si>
+    <t>文件头可能显示CPZ5或者CPZ6，所以我这里就登记CPZ了</t>
+  </si>
+  <si>
+    <t>4E 50 4B 33</t>
+  </si>
+  <si>
+    <t>NPK3</t>
+  </si>
+  <si>
+    <t>N+C社的galgame游戏加密文件</t>
+  </si>
+  <si>
+    <t>君与彼女与彼女之恋</t>
+  </si>
+  <si>
+    <t>NPK3Tool</t>
+  </si>
+  <si>
+    <t>gpk</t>
+  </si>
+  <si>
+    <t>东方系列游戏的一种文件打包格式</t>
+  </si>
+  <si>
+    <t>东方天空竞技场：幻想乡空战姬</t>
+  </si>
+  <si>
+    <t>GPKTool,命令行工具，报毒</t>
+  </si>
+  <si>
+    <t>未知的文件打包格式，和诺瓦露的pck文件头一样</t>
+  </si>
+  <si>
+    <t>传颂之物二人的白皇</t>
+  </si>
+  <si>
+    <t>sdat_unpacker，看文件头和诺瓦露的pck一样，于是使用pcktool试了试，解不了</t>
+  </si>
+  <si>
+    <t>和nds的sdat不一样</t>
+  </si>
+  <si>
+    <t>cat/lds</t>
+  </si>
+  <si>
+    <t>未知的文件打包格式</t>
+  </si>
+  <si>
+    <t>闪乱忍忍忍者大战海王星/神狱塔：断罪玛丽</t>
+  </si>
+  <si>
+    <t>可批量删除DDS前面的字节保存为dds格式</t>
+  </si>
+  <si>
+    <t>改成dds格式后再使用xnconvert转换成png</t>
+  </si>
+  <si>
+    <t>41 43 42</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>一种打包音频的文件，不是criware的acb</t>
+  </si>
+  <si>
+    <t>神狱塔：断罪玛丽/妖精剑士F：邪神降临</t>
+  </si>
+  <si>
+    <t>vgm工具箱</t>
+  </si>
+  <si>
+    <t>此acb非彼acb</t>
+  </si>
+  <si>
+    <t>cl3</t>
+  </si>
+  <si>
+    <t>43 4C 33 4C</t>
+  </si>
+  <si>
+    <t>CL3L</t>
+  </si>
+  <si>
+    <t>地雷社的一种打包tid图片的文件</t>
+  </si>
+  <si>
+    <t>妖精剑士F：邪神降临、海王星系列</t>
+  </si>
+  <si>
+    <t>Multi Extractor，可提取里面打包的tid图片，不建议使用文件多开器，会把电脑卡住</t>
+  </si>
+  <si>
+    <t>noesis安装对应插件，工具里面选择批量处理，或者使用Multi Extractor的py脚本来解</t>
+  </si>
+  <si>
+    <t>tex</t>
+  </si>
+  <si>
+    <t>54 65 78 74 75 72 65</t>
+  </si>
+  <si>
+    <t>Texture</t>
+  </si>
+  <si>
+    <t>地雷社压缩算法为LZ77的tex文件</t>
+  </si>
+  <si>
+    <t>超女深信仰诺瓦露</t>
+  </si>
+  <si>
+    <t>textool可以将一部分tex文件转换为png图片</t>
+  </si>
+  <si>
+    <t>超女神信仰诺瓦露同时存在ZLIB和LZ77两种压缩算法</t>
+  </si>
+  <si>
+    <t>5A 4C 49 42</t>
+  </si>
+  <si>
+    <t>ZLIB</t>
+  </si>
+  <si>
+    <t>地雷社压缩算法为zlib的tex文件</t>
+  </si>
+  <si>
+    <t>textool可将一部分tex文件转换为png图片</t>
+  </si>
+  <si>
+    <t>先删除78 DA前面的所有字节再使用zlib decompress，改成txt格式接着再使用textool</t>
+  </si>
+  <si>
+    <t>dat</t>
+  </si>
+  <si>
+    <t>47 44 41 54</t>
+  </si>
+  <si>
+    <t>GDAT</t>
+  </si>
+  <si>
+    <t>Silicon工作室Mizuchi引擎的打包格式</t>
+  </si>
+  <si>
+    <t>死亡终局轮回试炼、新次元海王星Ⅶr</t>
+  </si>
+  <si>
+    <t>quickbms使用GxArchivedFile文件解包脚本解包</t>
+  </si>
+  <si>
+    <t>每个dat文件貌似都有个csh索引文件，使用了ZLIB算法</t>
+  </si>
+  <si>
+    <t>46 50 41 43 80</t>
+  </si>
+  <si>
+    <t>FPAC€</t>
+  </si>
+  <si>
+    <t>Switch游戏的一种文件打包格式</t>
+  </si>
+  <si>
+    <t>赛马娘Pretty Derby：热血喧闹大感谢祭！(switch)</t>
+  </si>
+  <si>
+    <t>把pac文件拖到unpac.exe上面，建议使用文件多开器批量解压</t>
+  </si>
+  <si>
+    <t>该文件里面存储的内容需要使用unpac层层解压，hip可以转换成png</t>
+  </si>
+  <si>
+    <t>46 50 41 43</t>
+  </si>
+  <si>
+    <t>FPAC</t>
+  </si>
+  <si>
+    <t>Switch游戏的一种文件打包格式,文件头FPAC解包获得</t>
+  </si>
+  <si>
+    <t>该文件里面存储hip图片或者mua文件</t>
+  </si>
+  <si>
+    <t>hip</t>
+  </si>
+  <si>
+    <t>48 49 50</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>Switch游戏的一种图片格式，pac文件解包获得</t>
+  </si>
+  <si>
+    <t>把hip文件拖到unpac.exe上面，建议使用文件多开器批量解压</t>
+  </si>
+  <si>
+    <t>unpac可把hip图片转换成png</t>
+  </si>
+  <si>
+    <t>Gameexe.dat</t>
+  </si>
+  <si>
+    <t>00 00 00 00(前四位固定)</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏的文本文件</t>
+  </si>
+  <si>
+    <t>初恋1／1、Rewrite+(galgame游戏)</t>
+  </si>
+  <si>
+    <t>SiglusTools，会导出ini格式的配置文件</t>
+  </si>
+  <si>
+    <t>有些游戏后面会带有EN后缀,如GameexeEN.dat,解法一样</t>
+  </si>
+  <si>
+    <t>Scene.pck</t>
+  </si>
+  <si>
+    <t>5C 00 00 00 5C 00 00 00</t>
+  </si>
+  <si>
+    <t>\...\...</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏加密的文本文件，需要密钥才能解包</t>
+  </si>
+  <si>
+    <t>SiglusTools,会导出ss格式的文本文件，可用SiglusTools dump转换成txt文本</t>
+  </si>
+  <si>
+    <t>有些游戏后面会带有EN后缀,如SceneEN.pck，跟地雷社和wwise的pck完全不同</t>
+  </si>
+  <si>
+    <t>ss</t>
+  </si>
+  <si>
+    <t>84 00 00 00</t>
+  </si>
+  <si>
+    <t>乱码，010editor和uestudio不一样</t>
+  </si>
+  <si>
+    <t>Scene.pck解包的文本文件</t>
+  </si>
+  <si>
+    <t>可用SiglusTools dump转换成txt文本</t>
+  </si>
+  <si>
+    <t>omv</t>
+  </si>
+  <si>
+    <t>A8 00 00 00(字节码取前四位)</t>
+  </si>
+  <si>
+    <t>？...</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏的视频打包格式之一</t>
+  </si>
+  <si>
+    <t>SiglusExtract的Siglus_OMV文件夹的exe程序和SiglusTools可解包为ogv格式</t>
+  </si>
+  <si>
+    <t>随手写了个脚本批量解开了omv文件，已打包到SiglusTools里面</t>
+  </si>
+  <si>
+    <t>ovk</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏的一种加密音频文件</t>
+  </si>
+  <si>
+    <t>初恋1／1、CLANNAD高清版</t>
+  </si>
+  <si>
+    <t>garbro可直接播放和转换，foobar2000和ffmpeg无效</t>
+  </si>
+  <si>
+    <t>使用vgm工具箱批量提取</t>
+  </si>
+  <si>
+    <t>g00/g01</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏的一种加密图片文件</t>
+  </si>
+  <si>
+    <t>使用g00cnv可以转换，但是有些文件可能会报错，使用garbro的右键转换多媒体文件</t>
+  </si>
+  <si>
+    <t>dbs</t>
+  </si>
+  <si>
+    <t>SiglusEngie游戏的资源配置清单，如bgm名称</t>
+  </si>
+  <si>
+    <t>可用SiglusTools dump转换成xlsx格式的文档，使用金山wps可查看</t>
+  </si>
+  <si>
+    <t>szs</t>
+  </si>
+  <si>
+    <t>59 61 7A 30</t>
+  </si>
+  <si>
+    <t>Yaz0</t>
+  </si>
+  <si>
+    <t>wiiu平台的一种打包格式</t>
+  </si>
+  <si>
+    <t>sarc_tool，建议使用文件多开器批量解包</t>
+  </si>
+  <si>
+    <t>Uwizard除了能解wiiu wud还能解sarc和szs</t>
+  </si>
+  <si>
+    <t>PUP</t>
+  </si>
+  <si>
+    <t>53 43 45 55 46</t>
+  </si>
+  <si>
+    <t>SCEUF</t>
+  </si>
+  <si>
+    <t>PS3的系统文件</t>
+  </si>
+  <si>
+    <t>约会大作战 或守安装(PS3)</t>
+  </si>
+  <si>
+    <t>ps3tools，有毒不建议下载</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>38 42 50 53</t>
+  </si>
+  <si>
+    <t>8BPS</t>
+  </si>
+  <si>
+    <t>暂无，可从key社的galgame游戏g01文件提取出来</t>
+  </si>
+  <si>
+    <t>格式工厂可以转换</t>
+  </si>
+  <si>
+    <t>bmp</t>
+  </si>
+  <si>
+    <t>42 4D 36</t>
+  </si>
+  <si>
+    <t>BM6</t>
+  </si>
+  <si>
+    <t>bkarc</t>
+  </si>
+  <si>
+    <t>42 4B 41 52 43</t>
+  </si>
+  <si>
+    <t>BKARC</t>
+  </si>
+  <si>
+    <t>BKengine的galgame游戏的打包格式</t>
+  </si>
+  <si>
+    <t>遥望彼方</t>
+  </si>
+  <si>
+    <t>BKengine解包工具</t>
+  </si>
+  <si>
+    <t>心之翼</t>
+  </si>
+  <si>
+    <t>pna</t>
+  </si>
+  <si>
+    <t>50 4E 41 50</t>
+  </si>
+  <si>
+    <t>PNAP</t>
+  </si>
+  <si>
+    <t>galgame游戏的一种存储图片的打包格式</t>
+  </si>
+  <si>
+    <t>心之翼，把文件拖到garbro上按f4提取到指定文件夹</t>
+  </si>
+  <si>
+    <t>你明知道它里面存的是png图片，可是导出的时候却只能选择保持原样，不然无法提取</t>
+  </si>
+  <si>
+    <t>pimg</t>
+  </si>
+  <si>
+    <t>50 53 42</t>
+  </si>
+  <si>
+    <t>PSB</t>
+  </si>
+  <si>
+    <t>千恋万花，xp3解包后的一种文件</t>
+  </si>
+  <si>
+    <t>把文件拖到Ulysses-FreeMoteToolkit里面的PsbDecompile上即可自动解包到当前目录</t>
+  </si>
+  <si>
+    <t>scn</t>
+  </si>
+  <si>
+    <t>galgame游戏的一种未知文件</t>
+  </si>
+  <si>
+    <t>看到文件头是PSB，本以为能解出图片，结果得到一堆json文件，大失所望</t>
+  </si>
+  <si>
+    <t>mtn</t>
+  </si>
+  <si>
+    <t>文件头是PSB,这次没让我失望，总算提取出了图片</t>
+  </si>
+  <si>
+    <t>tlg</t>
+  </si>
+  <si>
+    <t>54 4C 47</t>
+  </si>
+  <si>
+    <t>TLG</t>
+  </si>
+  <si>
+    <t>galgame游戏的一种未知格式</t>
+  </si>
+  <si>
+    <t>TLGTest，一次只能解一个，使用文件多开器批量转换成png</t>
+  </si>
+  <si>
+    <t>新增脚本，可以批量解tlg文件，取代文件多开器</t>
+  </si>
+  <si>
+    <t>amv</t>
+  </si>
+  <si>
+    <t>41 4A 50 4D</t>
+  </si>
+  <si>
+    <t>AJPM</t>
+  </si>
+  <si>
+    <t>galgame游戏的一种视频格式</t>
+  </si>
+  <si>
+    <t>9-nine新章，xp3解包后的一种视频格式</t>
+  </si>
+  <si>
+    <t>AlphaMovieDecoderFake配置好环境变量输入命令解包</t>
+  </si>
+  <si>
+    <t>hg3</t>
+  </si>
+  <si>
+    <t>48 47 2D 33</t>
+  </si>
+  <si>
+    <t>HG-3</t>
+  </si>
+  <si>
+    <t>catsystem引擎的galgame游戏的一种图片打包格式</t>
+  </si>
+  <si>
+    <t>魔女的花园</t>
+  </si>
+  <si>
+    <t>garbro和hgx2bmp</t>
+  </si>
+  <si>
+    <t>建议使用garbro转换成png</t>
+  </si>
+  <si>
+    <t>psz</t>
+  </si>
+  <si>
+    <t>50 53 5A</t>
+  </si>
+  <si>
+    <t>PSZ</t>
+  </si>
+  <si>
+    <t>64 61 72 63</t>
+  </si>
+  <si>
+    <t>darc</t>
+  </si>
+  <si>
+    <t>3ds游戏的一种存储图片的数据档案</t>
+  </si>
+  <si>
+    <t>美妙旋律七彩演唱会闪耀设计</t>
+  </si>
+  <si>
+    <t>EveryFileExplorer太慢，使用darctool命令行解包工具还快点，任天堂toolbox也行</t>
+  </si>
+  <si>
+    <t>任天堂toolbox可以预览并导出</t>
+  </si>
+  <si>
+    <t>bclim</t>
+  </si>
+  <si>
+    <t>3ds游戏的一种图片，没固定文件头，全部乱码</t>
+  </si>
+  <si>
+    <t>png2bclim、任天堂toolbox，推荐后者，可以批量导入转换png</t>
+  </si>
+  <si>
+    <t>j0</t>
+  </si>
+  <si>
+    <t>54 69 6E 6B 44</t>
+  </si>
+  <si>
+    <t>TinkD(第一行固定不变，取前五位)</t>
+  </si>
+  <si>
+    <t>galgame游戏一种未知的音频格式</t>
+  </si>
+  <si>
+    <t>sewohayami</t>
+  </si>
+  <si>
+    <t>暂时不知道怎么解，但是在提取出来前可以使用garbro转换成ogg</t>
+  </si>
+  <si>
+    <t>lyarc</t>
+  </si>
+  <si>
+    <t>wiiu平台的一种文件打包格式</t>
+  </si>
+  <si>
+    <t>sarc_tool，建议配合文件多开器使用</t>
+  </si>
+  <si>
+    <t>bflim</t>
+  </si>
+  <si>
+    <t>wiiu平台的一种图片格式</t>
+  </si>
+  <si>
+    <t>bflim_extract，建议配合文件多开器使用。</t>
+  </si>
+  <si>
+    <t>3ds/cci/cxi</t>
+  </si>
+  <si>
+    <t>任天堂3ds游戏平台的rom格式</t>
+  </si>
+  <si>
+    <t>宝可梦、口袋妖怪</t>
+  </si>
+  <si>
+    <t>cia</t>
+  </si>
+  <si>
+    <t>20 20 00 00(字节码取前四位)</t>
+  </si>
+  <si>
+    <t>马里奥赛车7</t>
+  </si>
+  <si>
+    <t>makerom-x86_64转换成cci</t>
+  </si>
+  <si>
+    <t>sharcfb</t>
+  </si>
+  <si>
+    <t>42 41 48 53</t>
+  </si>
+  <si>
+    <t>BAHS</t>
+  </si>
+  <si>
+    <t>任天堂wiiu平台的一种未知打包文件</t>
+  </si>
+  <si>
+    <t>任天堂toolbox可以预览并提取里面的数据，但是不能直接以文件夹导出</t>
+  </si>
+  <si>
+    <t>ptcl</t>
+  </si>
+  <si>
+    <t>45 46 54 46</t>
+  </si>
+  <si>
+    <t>EFTF</t>
+  </si>
+  <si>
+    <t>任天堂wiiu平台的一种未知打包文件，里面有图片</t>
+  </si>
+  <si>
+    <t>任天堂toolbox可以预览并导出里面所有的图片</t>
+  </si>
+  <si>
+    <t>gtx</t>
+  </si>
+  <si>
+    <t>47 66 78 32</t>
+  </si>
+  <si>
+    <t>Gfx2</t>
+  </si>
+  <si>
+    <t>任天堂toolbox可以提取</t>
+  </si>
+  <si>
+    <t>dae</t>
+  </si>
+  <si>
+    <t>EF BB BF 3C(字节码取前四位)</t>
+  </si>
+  <si>
+    <t>collada模型的扩展名</t>
+  </si>
+  <si>
+    <t>使用blender可以导入和转化成其他格式的模型</t>
+  </si>
+  <si>
+    <t>bfres</t>
+  </si>
+  <si>
+    <t>46 52 45 53</t>
+  </si>
+  <si>
+    <t>FRES</t>
+  </si>
+  <si>
+    <t>任天堂switch的一种模型打包格式</t>
+  </si>
+  <si>
+    <t>任天堂toolbox可以提取模型为dae，贴图转化成png，目前没有可批量解bfres的工具</t>
+  </si>
+  <si>
+    <t>50 41 43</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>galgame游戏近月少女的礼仪的一种打包格式</t>
+  </si>
+  <si>
+    <t>近月少女的礼仪</t>
+  </si>
+  <si>
+    <t>伪装文件头，把无数个unity资产文件打包到一起了，使用工具分割</t>
+  </si>
+  <si>
+    <t>自制万能二进制提取脚本，使用此脚本可以分割</t>
+  </si>
+  <si>
+    <t>oma</t>
+  </si>
+  <si>
+    <t>psp平台pmf文件使用vgm工具箱提取的音频格式</t>
+  </si>
+  <si>
+    <t>刀剑神域无限瞬间</t>
+  </si>
+  <si>
+    <t>使用foobar2000、ffmpeg、格式工厂可以转换</t>
+  </si>
+  <si>
+    <t>asb</t>
+  </si>
+  <si>
+    <t>41 53 42 31</t>
+  </si>
+  <si>
+    <t>ASB1</t>
+  </si>
+  <si>
+    <t>psp平台的一种音频打包格式</t>
+  </si>
+  <si>
+    <t>剑、魔法与学园Final</t>
+  </si>
+  <si>
+    <t>Psound</t>
+  </si>
+  <si>
+    <t>pcm</t>
+  </si>
+  <si>
+    <t>................</t>
+  </si>
+  <si>
+    <t>索尼游戏解包提取获得</t>
+  </si>
+  <si>
+    <t>文件尾固定为00 07 77 77 77 77 77 77 77 77 77 77 77 77 77 77，使用二进制提取准确率高达99%</t>
+  </si>
+  <si>
+    <t>MSB/bin</t>
+  </si>
+  <si>
+    <t>ps2的一种音频打包格式</t>
+  </si>
+  <si>
+    <t>多浪迪警官3保护者、超级机器人大战</t>
+  </si>
+  <si>
+    <t>封装格式不一定</t>
+  </si>
+  <si>
+    <t>78 DA/78 9C/</t>
+  </si>
+  <si>
+    <t>使用zlib算法压缩的文件</t>
+  </si>
+  <si>
+    <t>魔窟冒险(wiiu)</t>
+  </si>
+  <si>
+    <t>vgm工具箱和任天堂toolbox尝试解压</t>
+  </si>
+  <si>
+    <t>pack</t>
+  </si>
+  <si>
+    <t>近月少女的礼仪2</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>FF D8 FF</t>
+  </si>
+  <si>
+    <t>常见的一种图片格式</t>
+  </si>
+  <si>
+    <t>一些卡牌手游里面可能会有</t>
+  </si>
+  <si>
+    <t>格式工厂、xnconvert</t>
+  </si>
+  <si>
+    <t>htf/htx</t>
+  </si>
+  <si>
+    <t>48 54 45 58</t>
+  </si>
+  <si>
+    <t>HTEX</t>
+  </si>
+  <si>
+    <t>战场女武神4的一种纹理打包格式</t>
+  </si>
+  <si>
+    <t>战场女武神4</t>
+  </si>
+  <si>
     <t>dragon unpacker</t>
-  </si>
-  <si>
-    <t>VPK</t>
-  </si>
-  <si>
-    <t>PSV游戏rom的格式</t>
-  </si>
-  <si>
-    <t>刀剑神域虚空断章(psv)</t>
-  </si>
-  <si>
-    <t>此vpk非彼vpk，起源引擎cs的vpk不能这样解</t>
-  </si>
-  <si>
-    <t>bin</t>
-  </si>
-  <si>
-    <t>PS1游戏的一种rom格式</t>
-  </si>
-  <si>
-    <t>最终幻想8</t>
-  </si>
-  <si>
-    <t>UltraISO</t>
-  </si>
-  <si>
-    <t>img</t>
-  </si>
-  <si>
-    <t>PS1游戏bin镜像解包后的一种文件</t>
-  </si>
-  <si>
-    <t>jpsxdec、软碟通</t>
-  </si>
-  <si>
-    <t>ahx</t>
-  </si>
-  <si>
-    <t>80 00 00 20</t>
-  </si>
-  <si>
-    <t>€..</t>
-  </si>
-  <si>
-    <t>afs文件里解出的一种音频格式</t>
-  </si>
-  <si>
-    <t>命运石之门(PSP)</t>
-  </si>
-  <si>
-    <t>vgmstream</t>
-  </si>
-  <si>
-    <t>1F 8B 08 08</t>
-  </si>
-  <si>
-    <t>.？.(乱码只显示3位)</t>
-  </si>
-  <si>
-    <t>一骑当先 交叉冲击(PSP平台)</t>
-  </si>
-  <si>
-    <t>astc</t>
-  </si>
-  <si>
-    <t>13 AB A1 5C</t>
-  </si>
-  <si>
-    <t>cocos2d游戏的一种图片格式</t>
-  </si>
-  <si>
-    <t>神行少女</t>
-  </si>
-  <si>
-    <t>使用文件多开器打开TexturePackerGui再一个个的转换成png</t>
-  </si>
-  <si>
-    <t>41 52 43 34</t>
-  </si>
-  <si>
-    <t>ARC4</t>
-  </si>
-  <si>
-    <t>少女爱上姐姐~2位艾露达</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>4B 49 46 00</t>
-  </si>
-  <si>
-    <t>KIF.</t>
-  </si>
-  <si>
-    <t>catsystem引擎的galgame游戏的打包格式</t>
-  </si>
-  <si>
-    <t>尚有佳蜜伴恋心、魔女的花园</t>
-  </si>
-  <si>
-    <t>此文件已加密，使用garbro解包，要检查此游戏的exe启动程序方可解包</t>
-  </si>
-  <si>
-    <t>扩展名不重要</t>
-  </si>
-  <si>
-    <t>50 41 43 4B</t>
-  </si>
-  <si>
-    <t>PACK</t>
-  </si>
-  <si>
-    <t>热带美酒</t>
-  </si>
-  <si>
-    <t>p和mus文件的文件头都是PACK，使用garbro解包，所以这种文件不看扩展名</t>
-  </si>
-  <si>
-    <t>最终幻想系列的游戏不适用</t>
-  </si>
-  <si>
-    <t>nsp</t>
-  </si>
-  <si>
-    <t>50 46 53 30</t>
-  </si>
-  <si>
-    <t>PFS0</t>
-  </si>
-  <si>
-    <t>Switch游戏的rom格式</t>
-  </si>
-  <si>
-    <t>王者荣耀、符文工坊5</t>
-  </si>
-  <si>
-    <t>NSCB转换成xci或者nsz格式，也可以解包获得nca文件，NSGManager可直接解包</t>
-  </si>
-  <si>
-    <t>nsz</t>
-  </si>
-  <si>
-    <t>NSCB转换成nsp格式，NSGManager可直接解包</t>
-  </si>
-  <si>
-    <t>xcz</t>
-  </si>
-  <si>
-    <t>NSCB转换成xci格式，NSGManager可直接解包</t>
-  </si>
-  <si>
-    <t>xci</t>
-  </si>
-  <si>
-    <t>NSCB将nsp或者xcz可转换成xci，NSGManager和hactool可以解包</t>
-  </si>
-  <si>
-    <t>新工具任天堂toolbox可以解没有加密的xci的rom</t>
-  </si>
-  <si>
-    <t>nca</t>
-  </si>
-  <si>
-    <t>Switch游戏nsp或xci解包的文件</t>
-  </si>
-  <si>
-    <t>NSGManager和hactool可以解包</t>
-  </si>
-  <si>
-    <t>tid</t>
-  </si>
-  <si>
-    <t>54 49 44</t>
-  </si>
-  <si>
-    <t>TID</t>
-  </si>
-  <si>
-    <t>地雷社游戏pac文件解包的一种图片格式</t>
-  </si>
-  <si>
-    <t>涅普缇努海王星系列</t>
-  </si>
-  <si>
-    <t>拖到nr2_tidtool上，建议使用文件多开器批量解包，解不开的可用Multi Extractor解</t>
-  </si>
-  <si>
-    <t>也可以尝试使用noesis解，有一种bc7纹理需要用bms脚本解</t>
-  </si>
-  <si>
-    <t>mpk</t>
-  </si>
-  <si>
-    <t>4D 50 4B</t>
-  </si>
-  <si>
-    <t>MPK</t>
-  </si>
-  <si>
-    <t>一种游戏打包格式</t>
-  </si>
-  <si>
-    <t>命运石之门(steam版)、秋之回忆无垢少女致最爱的你(ps4)</t>
-  </si>
-  <si>
-    <t>garbro可以解包，和网易的mpk不一样，psv版命运石之门的mpk加密了</t>
-  </si>
-  <si>
-    <t>自制脚本二进制提取大法</t>
-  </si>
-  <si>
-    <t>aa3</t>
-  </si>
-  <si>
-    <t>65 61 33</t>
-  </si>
-  <si>
-    <t>ea3</t>
-  </si>
-  <si>
-    <t>pam视频分离的音频格式</t>
-  </si>
-  <si>
-    <t>sdat</t>
-  </si>
-  <si>
-    <t>53 44 41 54</t>
-  </si>
-  <si>
-    <t>SDAT</t>
-  </si>
-  <si>
-    <t>nds游戏的音频打包格式，内部包含多个音频</t>
-  </si>
-  <si>
-    <t>VG MusicStudio或者vgmtrans解包</t>
-  </si>
-  <si>
-    <t>strm</t>
-  </si>
-  <si>
-    <t>53 54 52 4D</t>
-  </si>
-  <si>
-    <t>STRM</t>
-  </si>
-  <si>
-    <t>使用vgm工具箱解包sdat获得的一种音频格式</t>
-  </si>
-  <si>
-    <t>swav</t>
-  </si>
-  <si>
-    <t>53 57 41 56</t>
-  </si>
-  <si>
-    <t>SWAV</t>
-  </si>
-  <si>
-    <t>mca</t>
-  </si>
-  <si>
-    <t>4D 41 44 50</t>
-  </si>
-  <si>
-    <t>MADP</t>
-  </si>
-  <si>
-    <t>逆转裁判5、怪物猎人物语</t>
-  </si>
-  <si>
-    <t>02 00 00 00 01 00 00 01</t>
-  </si>
-  <si>
-    <t>........</t>
-  </si>
-  <si>
-    <t>怪物猎人</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>4D 54 68 64</t>
-  </si>
-  <si>
-    <t>MThd</t>
-  </si>
-  <si>
-    <t>nds、gba游戏解包的一种音频格式</t>
-  </si>
-  <si>
-    <t>vgmtrans解包nds，使用foobar2000转换</t>
-  </si>
-  <si>
-    <t>XA</t>
-  </si>
-  <si>
-    <t>PS1的一种打包格式</t>
-  </si>
-  <si>
-    <t>跨过我的尸体</t>
-  </si>
-  <si>
-    <t>jpsxdec，有些游戏可提取出音频，有些游戏无法提取</t>
-  </si>
-  <si>
-    <t>vab</t>
-  </si>
-  <si>
-    <t>70 42 41 56</t>
-  </si>
-  <si>
-    <t>pBAV</t>
-  </si>
-  <si>
-    <t>PS1的一种音频打包格式</t>
-  </si>
-  <si>
-    <t>游戏王</t>
-  </si>
-  <si>
-    <t>bwav</t>
-  </si>
-  <si>
-    <t>42 57 41 56</t>
-  </si>
-  <si>
-    <t>BWAV</t>
-  </si>
-  <si>
-    <t>switch游戏的一种音频格式</t>
-  </si>
-  <si>
-    <t>塞尔达传说：王国之泪</t>
-  </si>
-  <si>
-    <t>ktsl2stbin</t>
-  </si>
-  <si>
-    <t>4B 54 53 52 02 94 DD FC</t>
-  </si>
-  <si>
-    <t>KTSR.斴？</t>
-  </si>
-  <si>
-    <t>光荣特库摩的一种音频打包格式</t>
-  </si>
-  <si>
-    <t>符文工坊2(Switch)、仁王(ps4)</t>
-  </si>
-  <si>
-    <t>使用vgm工具箱的Advanced Cutter/Offset Finder的KTSS file解包，或者kvs和kns批量提取.py</t>
-  </si>
-  <si>
-    <t>如果是ps4平台的可以用vgm工具箱或者我的脚本可以提取出at3格式的音频</t>
-  </si>
-  <si>
-    <t>ktsl2asbin</t>
-  </si>
-  <si>
-    <t>4B 54 53 52 77 7B 48 1A 01 00</t>
-  </si>
-  <si>
-    <t>KTSRw{H...</t>
-  </si>
-  <si>
-    <t>光荣特库摩的一种音频打包格式或ktsl2stbin的索引文件</t>
-  </si>
-  <si>
-    <t>foobar2000可以直接播放并转换，经测试无论是switch还是ps4都可以直接播放</t>
-  </si>
-  <si>
-    <t>同名不同后缀stbin文件较大，类似acb和awb的关系</t>
-  </si>
-  <si>
-    <t>ktss/kns</t>
-  </si>
-  <si>
-    <t>4B 54 53 53</t>
-  </si>
-  <si>
-    <t>KTSS</t>
-  </si>
-  <si>
-    <t>光荣特库摩ktsl2stbin文件解包的音频格式</t>
-  </si>
-  <si>
-    <t>符文工坊2(Switch)</t>
-  </si>
-  <si>
-    <t>foobar2000、vgmstream</t>
-  </si>
-  <si>
-    <t>mg2</t>
-  </si>
-  <si>
-    <t>4D 49 43 4F 43 47 30 31</t>
-  </si>
-  <si>
-    <t>MICOCG01</t>
-  </si>
-  <si>
-    <t>一种未知的图片格式</t>
-  </si>
-  <si>
-    <t>绝对服从公主姬辱革命录</t>
-  </si>
-  <si>
-    <t>garbro将其转换成png</t>
-  </si>
-  <si>
-    <t>uasset</t>
-  </si>
-  <si>
-    <t>C1 83 2A 9E</t>
-  </si>
-  <si>
-    <t>虚幻引擎游戏的资产文件或索引文件</t>
-  </si>
-  <si>
-    <t>幻塔、魔道兵装等虚幻4游戏</t>
-  </si>
-  <si>
-    <t>fmodel或者umodel</t>
-  </si>
-  <si>
-    <t>文件头乱码，辨别它的方法是第三行显示的文本None</t>
-  </si>
-  <si>
-    <t>moflex</t>
-  </si>
-  <si>
-    <t>4C 32</t>
-  </si>
-  <si>
-    <t>L2</t>
-  </si>
-  <si>
-    <t>3DS游戏的视频打包格式</t>
-  </si>
-  <si>
-    <t>重装机兵4、逆转裁判6</t>
-  </si>
-  <si>
-    <t>ffmpeg、mobius</t>
-  </si>
-  <si>
-    <t>有些游戏用ffmpeg无法转换，下载个mobius就可以了</t>
-  </si>
-  <si>
-    <t>adpcm</t>
-  </si>
-  <si>
-    <t>Trinoline(Switch)、赛马娘PrettyDerby(switch)</t>
-  </si>
-  <si>
-    <t>opus</t>
-  </si>
-  <si>
-    <t>恋爱秘仪</t>
-  </si>
-  <si>
-    <t>vgm工具箱、foobar2000、ffmpeg、格式工厂</t>
-  </si>
-  <si>
-    <t>01 00 00 80(字节码取前四位)</t>
-  </si>
-  <si>
-    <t>任天堂Switch平台的一种压缩音频格式，实际上lopus格式</t>
-  </si>
-  <si>
-    <t>月姬重制版(Switch)</t>
-  </si>
-  <si>
-    <t>vgmstream或者改后缀名为lopus使用foobar2000</t>
-  </si>
-  <si>
-    <t>由哔哩哔哩up主暮光暗愈者提供的方法成功解开了这种opus格式</t>
-  </si>
-  <si>
-    <t>69 64 73 6B 61 33 32</t>
-  </si>
-  <si>
-    <t>idska32</t>
-  </si>
-  <si>
-    <t>InnoUnp技术打包的游戏文件</t>
-  </si>
-  <si>
-    <t>Trinoline(pc破解版)</t>
-  </si>
-  <si>
-    <t>使用同目录的exe执行程序安装</t>
-  </si>
-  <si>
-    <t>paz</t>
-  </si>
-  <si>
-    <t>minori社galgame游戏的加密文件</t>
-  </si>
-  <si>
-    <t>使用fuckpaz解包</t>
-  </si>
-  <si>
-    <t>45 4E 44 49 4C 54 4C 45</t>
-  </si>
-  <si>
-    <t>ENDILTLE</t>
-  </si>
-  <si>
-    <t>Artdink游戏的打包格式</t>
-  </si>
-  <si>
-    <t>伪恋出嫁、刀剑神域失落之歌、刀剑神域千年黄昏</t>
-  </si>
-  <si>
-    <t>特殊的脚本解包,此apk非彼apk，不要把它当做安卓程序安装包</t>
-  </si>
-  <si>
-    <t>dragon_ball_z_boz.bms或者apk解包工具</t>
-  </si>
-  <si>
-    <t>hfs</t>
-  </si>
-  <si>
-    <t>世纪天成代理的洛奇英雄传的一种文件打包格式</t>
-  </si>
-  <si>
-    <t>洛奇英雄传</t>
-  </si>
-  <si>
-    <t>HFSExtract</t>
-  </si>
-  <si>
-    <t>cmf</t>
-  </si>
-  <si>
-    <t>世纪天成代理的封印者的一种文件打包格式</t>
-  </si>
-  <si>
-    <t>封印者</t>
-  </si>
-  <si>
-    <t>closers_cmf_unpack_0.4.bms脚本，使用配套的批处理解包</t>
-  </si>
-  <si>
-    <t>aix</t>
-  </si>
-  <si>
-    <t>47 49 58 46</t>
-  </si>
-  <si>
-    <t>AIXF</t>
-  </si>
-  <si>
-    <t>SFD视频分离的一种音频格式</t>
-  </si>
-  <si>
-    <t>战场的女武神</t>
-  </si>
-  <si>
-    <t>csd</t>
-  </si>
-  <si>
-    <t>43 53 42 44</t>
-  </si>
-  <si>
-    <t>CSBD</t>
-  </si>
-  <si>
-    <t>未知的加密文件，存储着adx格式的音频文件</t>
-  </si>
-  <si>
-    <t>vgm工具箱以adx模式解包</t>
-  </si>
-  <si>
-    <t>cpz</t>
-  </si>
-  <si>
-    <t>43 50 5A</t>
-  </si>
-  <si>
-    <t>CPZ</t>
-  </si>
-  <si>
-    <t>紫社的文件打包方式</t>
-  </si>
-  <si>
-    <t>Amatsutsumi(天津罪)</t>
-  </si>
-  <si>
-    <t>arc_unpacker</t>
-  </si>
-  <si>
-    <t>文件头可能显示CPZ5或者CPZ6，所以我这里就登记CPZ了</t>
-  </si>
-  <si>
-    <t>4E 50 4B 33</t>
-  </si>
-  <si>
-    <t>NPK3</t>
-  </si>
-  <si>
-    <t>N+C社的galgame游戏加密文件</t>
-  </si>
-  <si>
-    <t>君与彼女与彼女之恋</t>
-  </si>
-  <si>
-    <t>NPK3Tool</t>
-  </si>
-  <si>
-    <t>gpk</t>
-  </si>
-  <si>
-    <t>东方系列游戏的一种文件打包格式</t>
-  </si>
-  <si>
-    <t>东方天空竞技场：幻想乡空战姬</t>
-  </si>
-  <si>
-    <t>GPKTool,命令行工具，报毒</t>
-  </si>
-  <si>
-    <t>未知的文件打包格式，和诺瓦露的pck文件头一样</t>
-  </si>
-  <si>
-    <t>传颂之物二人的白皇</t>
-  </si>
-  <si>
-    <t>sdat_unpacker，看文件头和诺瓦露的pck一样，于是使用pcktool试了试，解不了</t>
-  </si>
-  <si>
-    <t>和nds的sdat不一样</t>
-  </si>
-  <si>
-    <t>cat/lds</t>
-  </si>
-  <si>
-    <t>未知的文件打包格式</t>
-  </si>
-  <si>
-    <t>闪乱忍忍忍者大战海王星/神狱塔：断罪玛丽</t>
-  </si>
-  <si>
-    <t>可批量删除DDS前面的字节保存为dds格式</t>
-  </si>
-  <si>
-    <t>改成dds格式后再使用xnconvert转换成png</t>
-  </si>
-  <si>
-    <t>41 43 42</t>
-  </si>
-  <si>
-    <t>ACB</t>
-  </si>
-  <si>
-    <t>一种打包音频的文件，不是criware的acb</t>
-  </si>
-  <si>
-    <t>神狱塔：断罪玛丽/妖精剑士F：邪神降临</t>
-  </si>
-  <si>
-    <t>vgm工具箱</t>
-  </si>
-  <si>
-    <t>此acb非彼acb</t>
-  </si>
-  <si>
-    <t>cl3</t>
-  </si>
-  <si>
-    <t>43 4C 33 4C</t>
-  </si>
-  <si>
-    <t>CL3L</t>
-  </si>
-  <si>
-    <t>地雷社的一种打包tid图片的文件</t>
-  </si>
-  <si>
-    <t>妖精剑士F：邪神降临、海王星系列</t>
-  </si>
-  <si>
-    <t>Multi Extractor，可提取里面打包的tid图片，不建议使用文件多开器，会把电脑卡住</t>
-  </si>
-  <si>
-    <t>noesis安装对应插件，工具里面选择批量处理，或者使用Multi Extractor的py脚本来解</t>
-  </si>
-  <si>
-    <t>tex</t>
-  </si>
-  <si>
-    <t>54 65 78 74 75 72 65</t>
-  </si>
-  <si>
-    <t>Texture</t>
-  </si>
-  <si>
-    <t>地雷社压缩算法为LZ77的tex文件</t>
-  </si>
-  <si>
-    <t>超女深信仰诺瓦露</t>
-  </si>
-  <si>
-    <t>textool可以将一部分tex文件转换为png图片</t>
-  </si>
-  <si>
-    <t>超女神信仰诺瓦露同时存在ZLIB和LZ77两种压缩算法</t>
-  </si>
-  <si>
-    <t>5A 4C 49 42</t>
-  </si>
-  <si>
-    <t>ZLIB</t>
-  </si>
-  <si>
-    <t>地雷社压缩算法为zlib的tex文件</t>
-  </si>
-  <si>
-    <t>textool可将一部分tex文件转换为png图片</t>
-  </si>
-  <si>
-    <t>先删除78 DA前面的所有字节再使用zlib decompress，改成txt格式接着再使用textool</t>
-  </si>
-  <si>
-    <t>dat</t>
-  </si>
-  <si>
-    <t>47 44 41 54</t>
-  </si>
-  <si>
-    <t>GDAT</t>
-  </si>
-  <si>
-    <t>Silicon工作室Mizuchi引擎的打包格式</t>
-  </si>
-  <si>
-    <t>死亡终局轮回试炼、新次元海王星Ⅶr</t>
-  </si>
-  <si>
-    <t>quickbms使用GxArchivedFile文件解包脚本解包</t>
-  </si>
-  <si>
-    <t>每个dat文件貌似都有个csh索引文件，使用了ZLIB算法</t>
-  </si>
-  <si>
-    <t>46 50 41 43 80</t>
-  </si>
-  <si>
-    <t>FPAC€</t>
-  </si>
-  <si>
-    <t>Switch游戏的一种文件打包格式</t>
-  </si>
-  <si>
-    <t>赛马娘Pretty Derby：热血喧闹大感谢祭！(switch)</t>
-  </si>
-  <si>
-    <t>把pac文件拖到unpac.exe上面，建议使用文件多开器批量解压</t>
-  </si>
-  <si>
-    <t>该文件里面存储的内容需要使用unpac层层解压，hip可以转换成png</t>
-  </si>
-  <si>
-    <t>46 50 41 43</t>
-  </si>
-  <si>
-    <t>FPAC</t>
-  </si>
-  <si>
-    <t>Switch游戏的一种文件打包格式,文件头FPAC解包获得</t>
-  </si>
-  <si>
-    <t>该文件里面存储hip图片或者mua文件</t>
-  </si>
-  <si>
-    <t>hip</t>
-  </si>
-  <si>
-    <t>48 49 50</t>
-  </si>
-  <si>
-    <t>HIP</t>
-  </si>
-  <si>
-    <t>Switch游戏的一种图片格式，pac文件解包获得</t>
-  </si>
-  <si>
-    <t>把hip文件拖到unpac.exe上面，建议使用文件多开器批量解压</t>
-  </si>
-  <si>
-    <t>unpac可把hip图片转换成png</t>
-  </si>
-  <si>
-    <t>Gameexe.dat</t>
-  </si>
-  <si>
-    <t>00 00 00 00(前四位固定)</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏的文本文件</t>
-  </si>
-  <si>
-    <t>初恋1／1、Rewrite+(galgame游戏)</t>
-  </si>
-  <si>
-    <t>SiglusTools，会导出ini格式的配置文件</t>
-  </si>
-  <si>
-    <t>有些游戏后面会带有EN后缀,如GameexeEN.dat,解法一样</t>
-  </si>
-  <si>
-    <t>Scene.pck</t>
-  </si>
-  <si>
-    <t>5C 00 00 00 5C 00 00 00</t>
-  </si>
-  <si>
-    <t>\...\...</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏加密的文本文件，需要密钥才能解包</t>
-  </si>
-  <si>
-    <t>SiglusTools,会导出ss格式的文本文件，可用SiglusTools dump转换成txt文本</t>
-  </si>
-  <si>
-    <t>有些游戏后面会带有EN后缀,如SceneEN.pck，跟地雷社和wwise的pck完全不同</t>
-  </si>
-  <si>
-    <t>ss</t>
-  </si>
-  <si>
-    <t>84 00 00 00</t>
-  </si>
-  <si>
-    <t>乱码，010editor和uestudio不一样</t>
-  </si>
-  <si>
-    <t>Scene.pck解包的文本文件</t>
-  </si>
-  <si>
-    <t>可用SiglusTools dump转换成txt文本</t>
-  </si>
-  <si>
-    <t>omv</t>
-  </si>
-  <si>
-    <t>A8 00 00 00(字节码取前四位)</t>
-  </si>
-  <si>
-    <t>？...</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏的视频打包格式之一</t>
-  </si>
-  <si>
-    <t>SiglusExtract的Siglus_OMV文件夹的exe程序和SiglusTools可解包为ogv格式</t>
-  </si>
-  <si>
-    <t>随手写了个脚本批量解开了omv文件，已打包到SiglusTools里面</t>
-  </si>
-  <si>
-    <t>ovk</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏的一种加密音频文件</t>
-  </si>
-  <si>
-    <t>初恋1／1、CLANNAD高清版</t>
-  </si>
-  <si>
-    <t>garbro可直接播放和转换，foobar2000和ffmpeg无效</t>
-  </si>
-  <si>
-    <t>使用vgm工具箱批量提取</t>
-  </si>
-  <si>
-    <t>g00/g01</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏的一种加密图片文件</t>
-  </si>
-  <si>
-    <t>使用g00cnv可以转换，但是有些文件可能会报错，使用garbro的右键转换多媒体文件</t>
-  </si>
-  <si>
-    <t>dbs</t>
-  </si>
-  <si>
-    <t>SiglusEngie游戏的资源配置清单，如bgm名称</t>
-  </si>
-  <si>
-    <t>可用SiglusTools dump转换成xlsx格式的文档，使用金山wps可查看</t>
-  </si>
-  <si>
-    <t>szs</t>
-  </si>
-  <si>
-    <t>59 61 7A 30</t>
-  </si>
-  <si>
-    <t>Yaz0</t>
-  </si>
-  <si>
-    <t>wiiu平台的一种打包格式</t>
-  </si>
-  <si>
-    <t>sarc_tool，建议使用文件多开器批量解包</t>
-  </si>
-  <si>
-    <t>Uwizard除了能解wiiu wud还能解sarc和szs</t>
-  </si>
-  <si>
-    <t>PUP</t>
-  </si>
-  <si>
-    <t>53 43 45 55 46</t>
-  </si>
-  <si>
-    <t>SCEUF</t>
-  </si>
-  <si>
-    <t>PS3的系统文件</t>
-  </si>
-  <si>
-    <t>约会大作战 或守安装(PS3)</t>
-  </si>
-  <si>
-    <t>ps3tools，有毒不建议下载</t>
-  </si>
-  <si>
-    <t>psd</t>
-  </si>
-  <si>
-    <t>38 42 50 53</t>
-  </si>
-  <si>
-    <t>8BPS</t>
-  </si>
-  <si>
-    <t>暂无，可从key社的galgame游戏g01文件提取出来</t>
-  </si>
-  <si>
-    <t>格式工厂可以转换</t>
-  </si>
-  <si>
-    <t>bmp</t>
-  </si>
-  <si>
-    <t>42 4D 36</t>
-  </si>
-  <si>
-    <t>BM6</t>
-  </si>
-  <si>
-    <t>bkarc</t>
-  </si>
-  <si>
-    <t>42 4B 41 52 43</t>
-  </si>
-  <si>
-    <t>BKARC</t>
-  </si>
-  <si>
-    <t>BKengine的galgame游戏的打包格式</t>
-  </si>
-  <si>
-    <t>遥望彼方</t>
-  </si>
-  <si>
-    <t>BKengine解包工具</t>
-  </si>
-  <si>
-    <t>心之翼</t>
-  </si>
-  <si>
-    <t>pna</t>
-  </si>
-  <si>
-    <t>50 4E 41 50</t>
-  </si>
-  <si>
-    <t>PNAP</t>
-  </si>
-  <si>
-    <t>galgame游戏的一种存储图片的打包格式</t>
-  </si>
-  <si>
-    <t>心之翼，把文件拖到garbro上按f4提取到指定文件夹</t>
-  </si>
-  <si>
-    <t>你明知道它里面存的是png图片，可是导出的时候却只能选择保持原样，不然无法提取</t>
-  </si>
-  <si>
-    <t>pimg</t>
-  </si>
-  <si>
-    <t>50 53 42</t>
-  </si>
-  <si>
-    <t>PSB</t>
-  </si>
-  <si>
-    <t>千恋万花，xp3解包后的一种文件</t>
-  </si>
-  <si>
-    <t>把文件拖到Ulysses-FreeMoteToolkit里面的PsbDecompile上即可自动解包到当前目录</t>
-  </si>
-  <si>
-    <t>scn</t>
-  </si>
-  <si>
-    <t>galgame游戏的一种未知文件</t>
-  </si>
-  <si>
-    <t>看到文件头是PSB，本以为能解出图片，结果得到一堆json文件，大失所望</t>
-  </si>
-  <si>
-    <t>mtn</t>
-  </si>
-  <si>
-    <t>文件头是PSB,这次没让我失望，总算提取出了图片</t>
-  </si>
-  <si>
-    <t>tlg</t>
-  </si>
-  <si>
-    <t>54 4C 47</t>
-  </si>
-  <si>
-    <t>TLG</t>
-  </si>
-  <si>
-    <t>galgame游戏的一种未知格式</t>
-  </si>
-  <si>
-    <t>TLGTest，一次只能解一个，使用文件多开器批量转换成png</t>
-  </si>
-  <si>
-    <t>新增脚本，可以批量解tlg文件，取代文件多开器</t>
-  </si>
-  <si>
-    <t>amv</t>
-  </si>
-  <si>
-    <t>41 4A 50 4D</t>
-  </si>
-  <si>
-    <t>AJPM</t>
-  </si>
-  <si>
-    <t>galgame游戏的一种视频格式</t>
-  </si>
-  <si>
-    <t>9-nine新章，xp3解包后的一种视频格式</t>
-  </si>
-  <si>
-    <t>AlphaMovieDecoderFake配置好环境变量输入命令解包</t>
-  </si>
-  <si>
-    <t>hg3</t>
-  </si>
-  <si>
-    <t>48 47 2D 33</t>
-  </si>
-  <si>
-    <t>HG-3</t>
-  </si>
-  <si>
-    <t>catsystem引擎的galgame游戏的一种图片打包格式</t>
-  </si>
-  <si>
-    <t>魔女的花园</t>
-  </si>
-  <si>
-    <t>garbro和hgx2bmp</t>
-  </si>
-  <si>
-    <t>建议使用garbro转换成png</t>
-  </si>
-  <si>
-    <t>psz</t>
-  </si>
-  <si>
-    <t>50 53 5A</t>
-  </si>
-  <si>
-    <t>PSZ</t>
-  </si>
-  <si>
-    <t>64 61 72 63</t>
-  </si>
-  <si>
-    <t>darc</t>
-  </si>
-  <si>
-    <t>3ds游戏的一种存储图片的数据档案</t>
-  </si>
-  <si>
-    <t>美妙旋律七彩演唱会闪耀设计</t>
-  </si>
-  <si>
-    <t>EveryFileExplorer太慢，使用darctool命令行解包工具还快点，任天堂toolbox也行</t>
-  </si>
-  <si>
-    <t>任天堂toolbox可以预览并导出</t>
-  </si>
-  <si>
-    <t>bclim</t>
-  </si>
-  <si>
-    <t>3ds游戏的一种图片，没固定文件头，全部乱码</t>
-  </si>
-  <si>
-    <t>png2bclim、任天堂toolbox，推荐后者，可以批量导入转换png</t>
-  </si>
-  <si>
-    <t>j0</t>
-  </si>
-  <si>
-    <t>54 69 6E 6B 44</t>
-  </si>
-  <si>
-    <t>TinkD(第一行固定不变，取前五位)</t>
-  </si>
-  <si>
-    <t>galgame游戏一种未知的音频格式</t>
-  </si>
-  <si>
-    <t>sewohayami</t>
-  </si>
-  <si>
-    <t>暂时不知道怎么解，但是在提取出来前可以使用garbro转换成ogg</t>
-  </si>
-  <si>
-    <t>lyarc</t>
-  </si>
-  <si>
-    <t>wiiu平台的一种文件打包格式</t>
-  </si>
-  <si>
-    <t>sarc_tool，建议配合文件多开器使用</t>
-  </si>
-  <si>
-    <t>任天堂toolbox</t>
-  </si>
-  <si>
-    <t>bflim</t>
-  </si>
-  <si>
-    <t>wiiu平台的一种图片格式</t>
-  </si>
-  <si>
-    <t>bflim_extract，建议配合文件多开器使用。</t>
-  </si>
-  <si>
-    <t>3ds/cci/cxi</t>
-  </si>
-  <si>
-    <t>任天堂3ds游戏平台的rom格式</t>
-  </si>
-  <si>
-    <t>宝可梦、口袋妖怪</t>
-  </si>
-  <si>
-    <t>cia</t>
-  </si>
-  <si>
-    <t>20 20 00 00(字节码取前四位)</t>
-  </si>
-  <si>
-    <t>马里奥赛车7</t>
-  </si>
-  <si>
-    <t>makerom-x86_64转换成cci</t>
-  </si>
-  <si>
-    <t>sharcfb</t>
-  </si>
-  <si>
-    <t>42 41 48 53</t>
-  </si>
-  <si>
-    <t>BAHS</t>
-  </si>
-  <si>
-    <t>任天堂wiiu平台的一种未知打包文件</t>
-  </si>
-  <si>
-    <t>任天堂toolbox可以预览并提取里面的数据，但是不能直接以文件夹导出</t>
-  </si>
-  <si>
-    <t>ptcl</t>
-  </si>
-  <si>
-    <t>45 46 54 46</t>
-  </si>
-  <si>
-    <t>EFTF</t>
-  </si>
-  <si>
-    <t>任天堂wiiu平台的一种未知打包文件，里面有图片</t>
-  </si>
-  <si>
-    <t>任天堂toolbox可以预览并导出里面所有的图片</t>
-  </si>
-  <si>
-    <t>gtx</t>
-  </si>
-  <si>
-    <t>47 66 78 32</t>
-  </si>
-  <si>
-    <t>Gfx2</t>
-  </si>
-  <si>
-    <t>任天堂toolbox可以提取</t>
-  </si>
-  <si>
-    <t>dae</t>
-  </si>
-  <si>
-    <t>EF BB BF 3C(字节码取前四位)</t>
-  </si>
-  <si>
-    <t>collada模型的扩展名</t>
-  </si>
-  <si>
-    <t>使用blender可以导入和转化成其他格式的模型</t>
-  </si>
-  <si>
-    <t>bfres</t>
-  </si>
-  <si>
-    <t>46 52 45 53</t>
-  </si>
-  <si>
-    <t>FRES</t>
-  </si>
-  <si>
-    <t>任天堂switch的一种模型打包格式</t>
-  </si>
-  <si>
-    <t>任天堂toolbox可以提取模型为dae，贴图转化成png</t>
-  </si>
-  <si>
-    <t>50 41 43</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
-    <t>galgame游戏近月少女的礼仪的一种打包格式</t>
-  </si>
-  <si>
-    <t>近月少女的礼仪</t>
-  </si>
-  <si>
-    <t>伪装文件头，把无数个unity资产文件打包到一起了，使用工具分割</t>
-  </si>
-  <si>
-    <t>自制万能二进制提取脚本，使用此脚本可以分割</t>
-  </si>
-  <si>
-    <t>oma</t>
-  </si>
-  <si>
-    <t>psp平台pmf文件使用vgm工具箱提取的音频格式</t>
-  </si>
-  <si>
-    <t>刀剑神域无限瞬间</t>
-  </si>
-  <si>
-    <t>使用foobar2000、ffmpeg、格式工厂可以转换</t>
-  </si>
-  <si>
-    <t>asb</t>
-  </si>
-  <si>
-    <t>41 53 42 31</t>
-  </si>
-  <si>
-    <t>ASB1</t>
-  </si>
-  <si>
-    <t>psp平台的一种音频打包格式</t>
-  </si>
-  <si>
-    <t>剑、魔法与学园Final</t>
-  </si>
-  <si>
-    <t>Psound</t>
-  </si>
-  <si>
-    <t>pcm</t>
-  </si>
-  <si>
-    <t>................</t>
-  </si>
-  <si>
-    <t>索尼游戏解包提取获得</t>
-  </si>
-  <si>
-    <t>文件尾固定为00 07 77 77 77 77 77 77 77 77 77 77 77 77 77 77，使用二进制提取准确率高达99%</t>
-  </si>
-  <si>
-    <t>MSB/bin</t>
-  </si>
-  <si>
-    <t>ps2的一种音频打包格式</t>
-  </si>
-  <si>
-    <t>多浪迪警官3保护者、超级机器人大战</t>
-  </si>
-  <si>
-    <t>封装格式不一定</t>
-  </si>
-  <si>
-    <t>78 DA/78 9C/</t>
-  </si>
-  <si>
-    <t>使用zlib算法压缩的文件</t>
-  </si>
-  <si>
-    <t>魔窟冒险(wiiu)</t>
-  </si>
-  <si>
-    <t>vgm工具箱和任天堂toolbox尝试解压</t>
-  </si>
-  <si>
-    <t>pack</t>
-  </si>
-  <si>
-    <t>近月少女的礼仪2</t>
-  </si>
-  <si>
-    <t>jpg</t>
-  </si>
-  <si>
-    <t>FF D8 FF</t>
-  </si>
-  <si>
-    <t>常见的一种图片格式</t>
-  </si>
-  <si>
-    <t>一些卡牌手游里面可能会有</t>
-  </si>
-  <si>
-    <t>格式工厂、xnconvert</t>
-  </si>
-  <si>
-    <t>htf/htx</t>
-  </si>
-  <si>
-    <t>48 54 45 58</t>
-  </si>
-  <si>
-    <t>HTEX</t>
-  </si>
-  <si>
-    <t>战场女武神4的一种纹理打包格式</t>
-  </si>
-  <si>
-    <t>战场女武神4</t>
   </si>
   <si>
     <t>dpak</t>
@@ -4040,7 +4046,7 @@
     <t>RIFX</t>
   </si>
   <si>
-    <t>xbox360游戏的一种音频容器格式</t>
+    <t>xbox360、wii游戏的一种音频容器格式</t>
   </si>
   <si>
     <t>暗影狂奔、合金装备5 原爆点使用bms脚本解包获得</t>
@@ -4511,6 +4517,135 @@
   </si>
   <si>
     <t>正当防卫2</t>
+  </si>
+  <si>
+    <t>wismt</t>
+  </si>
+  <si>
+    <t>异度之刃3的打包格式，使用了fakeheader和zlib压缩算法</t>
+  </si>
+  <si>
+    <t>异度之刃3(switch)使用bms脚本解压出的文件</t>
+  </si>
+  <si>
+    <t>先删除78 9C前面的所有内容再使用zlib算法解压，如果文件尾是LBIM则用脚本修改为lbim格式</t>
+  </si>
+  <si>
+    <t>我制作了个脚本，删字节、zlib解压为lbim文件调用xenoTextureConvert转换成dds，脚本会边解边删</t>
+  </si>
+  <si>
+    <t>44 52 53 4D</t>
+  </si>
+  <si>
+    <t>DRSM</t>
+  </si>
+  <si>
+    <t>也可以用mdoTextureExtract解。这个游戏里有5种不同的wismt文件，剩下3种都不会解</t>
+  </si>
+  <si>
+    <t>mdoTextureExtract非常难用，不知道作者写的什么垃圾工具</t>
+  </si>
+  <si>
+    <t>wilay</t>
+  </si>
+  <si>
+    <t>4C 41 48 44</t>
+  </si>
+  <si>
+    <t>LAHD</t>
+  </si>
+  <si>
+    <t>异度之刃3的一种fakeheader加密文件，实际上是jpg图片</t>
+  </si>
+  <si>
+    <t>删除jpg文件头前面的内容再保存为jpg格式就可以了</t>
+  </si>
+  <si>
+    <t>异度之刃3的一种fakeheader加密文件</t>
+  </si>
+  <si>
+    <t>尝试使用xenoTextureConvert解包</t>
+  </si>
+  <si>
+    <t>lbim</t>
+  </si>
+  <si>
+    <t>异度之刃3解包获得的一种文件,文件尾固定为4C 42 49 4D</t>
+  </si>
+  <si>
+    <t>没有固定的文件头，但是有固定的文件尾，使用xenoTextureConvert可转换为dds图片</t>
+  </si>
+  <si>
+    <t>没有固定的文件头，但是有固定的文件尾LBIM，字节码为4C 42 49 4D</t>
+  </si>
+  <si>
+    <t>wi/wipac/wipa/bin/wiefxa</t>
+  </si>
+  <si>
+    <t>41 52 43</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>查找63 6D 70 00 7A 6C 69 62，使用万能二进制提取并删除78 9C前面的内容使用zlib算法解压</t>
+  </si>
+  <si>
+    <t>最终会得到一个ARC文件头并显示真实内容的文件，但是接下来我就不知道该如何解了</t>
+  </si>
+  <si>
+    <t>wimdo</t>
+  </si>
+  <si>
+    <t>44 4D 50 41</t>
+  </si>
+  <si>
+    <t>DMPA</t>
+  </si>
+  <si>
+    <t>异度之刃3的打包格式，里面包含多个wismt文件</t>
+  </si>
+  <si>
+    <t>使用万能二进制脚本提取lbim文件然后使用xenoTextureConvert可转换为dds图片</t>
+  </si>
+  <si>
+    <t>nvda</t>
+  </si>
+  <si>
+    <t>4E 56 44 41</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>使用万能二进制脚本提取wismt文件，然后删除78 9C前面的内容使用zlib算法解压</t>
+  </si>
+  <si>
+    <t>最终会得到一堆NVPC文件头的文件，接下来不知道如何解了</t>
+  </si>
+  <si>
+    <t>wismda</t>
+  </si>
+  <si>
+    <t>随后使用xenoTextureConvert可转换为dds图片</t>
+  </si>
+  <si>
+    <t>61 64 6F 59</t>
+  </si>
+  <si>
+    <t>adoY</t>
+  </si>
+  <si>
+    <t>星球大战原力释放2的一种zlib压缩文件</t>
+  </si>
+  <si>
+    <t>星球大战原力释放2(wii)</t>
+  </si>
+  <si>
+    <t>查找61 64 6F 59使用万能二进制脚本提取，接着删除78 01前面的内容在使用zlib算法解压</t>
+  </si>
+  <si>
+    <t>23000多个文件有21000多个文件可以被zlib decompress解压还原，但是下一步不知道怎么解</t>
   </si>
 </sst>
 </file>
@@ -5846,10 +5981,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H315"/>
+  <dimension ref="A1:H325"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A152" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A326" sqref="A326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="27" customHeight="1" outlineLevelCol="7"/>
@@ -8383,35 +8518,35 @@
         <v>581</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>135</v>
+        <v>583</v>
       </c>
     </row>
     <row r="123" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A123" s="2" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="124" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A124" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>346</v>
@@ -8420,21 +8555,21 @@
         <v>347</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>506</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="125" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A125" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>186</v>
@@ -8443,18 +8578,18 @@
         <v>186</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="126" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>186</v>
@@ -8463,33 +8598,33 @@
         <v>186</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="127" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A127" s="2" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="128" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -8497,16 +8632,16 @@
         <v>503</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>122</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>506</v>
@@ -8514,39 +8649,39 @@
     </row>
     <row r="129" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A129" s="2" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="130" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A130" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>389</v>
@@ -8554,90 +8689,90 @@
     </row>
     <row r="131" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A131" s="2" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="132" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A132" s="2" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="133" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A133" s="2" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A134" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="F134" s="2" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A135" s="2" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>186</v>
@@ -8646,18 +8781,18 @@
         <v>186</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A136" s="2" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>186</v>
@@ -8666,21 +8801,21 @@
         <v>186</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A137" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>186</v>
@@ -8689,73 +8824,73 @@
         <v>186</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A138" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="139" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A139" s="2" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="140" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A140" s="2" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>71</v>
@@ -8766,36 +8901,36 @@
     </row>
     <row r="141" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A141" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>392</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="142" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A142" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>392</v>
@@ -8806,16 +8941,16 @@
     </row>
     <row r="143" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A143" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B143" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>672</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>392</v>
@@ -8826,19 +8961,19 @@
     </row>
     <row r="144" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A144" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>19</v>
@@ -8846,19 +8981,19 @@
     </row>
     <row r="145" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A145" s="2" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>189</v>
@@ -8866,27 +9001,27 @@
     </row>
     <row r="146" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A146" s="4" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>392</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="147" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A147" s="2" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>186</v>
@@ -8895,30 +9030,30 @@
         <v>186</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="148" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>189</v>
@@ -8926,19 +9061,19 @@
     </row>
     <row r="149" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A149" s="2" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>189</v>
@@ -8946,139 +9081,139 @@
     </row>
     <row r="150" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A150" s="2" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="151" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A151" s="2" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="152" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A152" s="2" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="153" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A153" s="2" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="E153" s="5" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="154" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A154" s="2" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="155" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A155" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A156" s="2" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>186</v>
@@ -9090,15 +9225,15 @@
         <v>284</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="157" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A157" s="3" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>208</v>
@@ -9110,59 +9245,59 @@
         <v>284</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="G157" s="2"/>
     </row>
     <row r="158" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A158" s="2" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A159" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="160" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A160" s="2" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>186</v>
@@ -9171,13 +9306,13 @@
         <v>186</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="161" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -9185,27 +9320,27 @@
         <v>351</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E161" s="9" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="162" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A162" s="2" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>186</v>
@@ -9214,18 +9349,18 @@
         <v>186</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
     </row>
     <row r="163" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A163" s="2" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>186</v>
@@ -9234,30 +9369,30 @@
         <v>186</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
     <row r="164" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A164" s="2" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>19</v>
@@ -9265,45 +9400,45 @@
     </row>
     <row r="165" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A165" s="2" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>774</v>
-      </c>
       <c r="F165" s="2" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
     </row>
     <row r="166" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A166" s="2" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="167" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -9311,24 +9446,24 @@
         <v>271</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
     </row>
     <row r="168" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A168" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>186</v>
@@ -9337,18 +9472,18 @@
         <v>186</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
     </row>
     <row r="169" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A169" s="2" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>173</v>
@@ -9357,21 +9492,21 @@
         <v>174</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="170" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A170" s="2" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>186</v>
@@ -9380,16 +9515,16 @@
         <v>186</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="F170" s="2" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="171" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -9397,114 +9532,114 @@
         <v>20</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="172" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A172" s="2" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
     </row>
     <row r="173" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A173" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
     </row>
     <row r="174" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A174" s="2" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
     </row>
     <row r="175" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A175" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="176" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -9512,22 +9647,22 @@
         <v>507</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="177" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -9535,139 +9670,139 @@
         <v>507</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F177" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>841</v>
-      </c>
       <c r="G177" s="2" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="178" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A178" s="2" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="179" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A179" s="2" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
     </row>
     <row r="180" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A180" s="2" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="G180" s="10" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="181" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A181" s="2" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F181" s="7" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A182" s="2" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
     </row>
     <row r="183" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A183" s="2" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>186</v>
@@ -9676,21 +9811,21 @@
         <v>186</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="G183" s="7" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
     </row>
     <row r="184" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A184" s="2" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>186</v>
@@ -9699,136 +9834,136 @@
         <v>186</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
     </row>
     <row r="185" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A185" s="2" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F185" s="7" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
     </row>
     <row r="186" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A186" s="2" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>429</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
     </row>
     <row r="187" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A187" s="2" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
     </row>
     <row r="188" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A188" s="2" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="189" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A189" s="2" t="s">
-        <v>904</v>
+        <v>906</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>905</v>
+        <v>907</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>906</v>
+        <v>908</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="190" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A190" s="2" t="s">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="191" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -9845,7 +9980,7 @@
         <v>58</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>389</v>
@@ -9853,168 +9988,168 @@
     </row>
     <row r="192" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A192" s="2" t="s">
-        <v>914</v>
+        <v>916</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="F192" s="7" t="s">
-        <v>919</v>
+        <v>921</v>
       </c>
     </row>
     <row r="193" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A193" s="2" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="194" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A194" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>926</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>923</v>
-      </c>
       <c r="F194" s="11" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
     </row>
     <row r="195" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A195" s="3" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F195" s="11" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
     </row>
     <row r="196" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A196" s="2" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="197" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A197" s="2" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
     </row>
     <row r="198" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A198" s="3" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
     </row>
     <row r="199" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A199" s="2" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="200" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -10022,27 +10157,27 @@
         <v>259</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>952</v>
+        <v>954</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>953</v>
+        <v>955</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F200" s="7" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="G200" s="13" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="201" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A201" s="2" t="s">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>186</v>
@@ -10051,38 +10186,38 @@
         <v>186</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
     </row>
     <row r="202" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A202" s="3" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="203" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A203" s="3" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>447</v>
@@ -10091,21 +10226,21 @@
         <v>448</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>970</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A204" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>186</v>
@@ -10114,21 +10249,21 @@
         <v>186</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E204" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F204" s="11" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>970</v>
+        <v>583</v>
       </c>
     </row>
     <row r="205" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A205" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>186</v>
@@ -10137,133 +10272,133 @@
         <v>186</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F205" s="14" t="s">
-        <v>970</v>
+        <v>583</v>
       </c>
     </row>
     <row r="206" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A206" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="F206" s="11" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="207" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A207" s="3" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="E207" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="208" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A208" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E208" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F208" s="11" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="209" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A209" s="3" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E209" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F209" s="11" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="210" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A210" s="3" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E210" s="3" t="s">
         <v>429</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="211" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A211" s="2" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>429</v>
       </c>
       <c r="F211" s="7" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="212" s="3" customFormat="1" customHeight="1" spans="1:7">
@@ -10271,90 +10406,90 @@
         <v>507</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="213" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A213" s="2" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="214" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A214" s="2" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F214" s="7" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="215" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A215" s="2" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>489</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>284</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="216" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A216" s="2" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>489</v>
@@ -10363,38 +10498,38 @@
         <v>291</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="217" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A217" s="2" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="218" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A218" s="2" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>186</v>
@@ -10403,7 +10538,7 @@
         <v>186</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>58</v>
@@ -10414,83 +10549,83 @@
     </row>
     <row r="219" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A219" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>239</v>
       </c>
       <c r="D219" s="3" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G219" s="15"/>
     </row>
     <row r="220" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A220" s="2" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F220" s="7" t="s">
-        <v>587</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="221" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A221" s="2" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
     </row>
     <row r="222" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A222" s="2" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="F222" s="11" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="223" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -10498,67 +10633,67 @@
         <v>172</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="F223" s="11" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="224" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A224" s="3" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>568</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="225" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A225" s="3" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="F225" s="11" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="226" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A226" s="3" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>186</v>
@@ -10567,18 +10702,18 @@
         <v>186</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="F226" s="11" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="227" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A227" s="3" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>346</v>
@@ -10587,50 +10722,50 @@
         <v>347</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="228" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A228" s="2" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="F228" s="7" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="229" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A229" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>212</v>
@@ -10638,19 +10773,19 @@
     </row>
     <row r="230" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A230" s="2" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>212</v>
@@ -10658,19 +10793,19 @@
     </row>
     <row r="231" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A231" s="3" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>212</v>
@@ -10678,19 +10813,19 @@
     </row>
     <row r="232" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A232" s="3" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>1094</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D232" s="16" t="s">
-        <v>1096</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>1092</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>212</v>
@@ -10698,19 +10833,19 @@
     </row>
     <row r="233" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A233" s="2" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>212</v>
@@ -10718,39 +10853,39 @@
     </row>
     <row r="234" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A234" s="2" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F234" s="7" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="235" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A235" s="2" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>212</v>
@@ -10758,39 +10893,39 @@
     </row>
     <row r="236" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A236" s="2" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="F236" s="7" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="237" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A237" s="2" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>212</v>
@@ -10801,44 +10936,44 @@
         <v>172</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="F238" s="7" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="239" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A239" s="2" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="D239" s="17" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F239" s="7" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="240" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A240" s="2" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>186</v>
@@ -10847,58 +10982,58 @@
         <v>186</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="F240" s="11" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="241" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A241" s="2" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="F241" s="11" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="242" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A242" s="2" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="243" s="1" customFormat="1" customHeight="1" spans="1:6">
       <c r="A243" s="18" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>186</v>
@@ -10907,10 +11042,10 @@
         <v>186</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
       <c r="F243" s="11" t="s">
         <v>47</v>
@@ -10918,7 +11053,7 @@
     </row>
     <row r="244" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A244" s="2" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>186</v>
@@ -10927,18 +11062,18 @@
         <v>186</v>
       </c>
       <c r="D244" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>1146</v>
-      </c>
       <c r="F244" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="245" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A245" s="10" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>49</v>
@@ -10947,59 +11082,59 @@
         <v>50</v>
       </c>
       <c r="D245" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>1146</v>
-      </c>
       <c r="F245" s="2" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="246" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A246" s="2" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="247" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A247" s="3" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D247" s="3" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="248" s="3" customFormat="1" customHeight="1" spans="1:7">
@@ -11007,27 +11142,27 @@
         <v>42</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="D248" s="3" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="249" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A249" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>186</v>
@@ -11036,84 +11171,84 @@
         <v>186</v>
       </c>
       <c r="D249" s="3" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="250" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A250" s="2" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="F250" s="7" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="251" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A251" s="2" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="252" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A252" s="2" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="F252" s="7" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="253" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A253" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>186</v>
@@ -11122,10 +11257,10 @@
         <v>186</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>389</v>
@@ -11133,27 +11268,27 @@
     </row>
     <row r="254" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A254" s="2" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B254" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>1195</v>
-      </c>
-      <c r="E254" s="2" t="s">
-        <v>1191</v>
-      </c>
       <c r="F254" s="7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="255" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A255" s="2" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>318</v>
@@ -11162,13 +11297,13 @@
         <v>319</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="256" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -11176,24 +11311,24 @@
         <v>366</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="F256" s="7" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="257" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A257" s="19" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>403</v>
@@ -11202,173 +11337,173 @@
         <v>404</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="258" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A258" s="2" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="D258" s="20" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="259" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A259" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D259" s="21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E259" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B259" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C259" s="3" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D259" s="21" t="s">
-        <v>1219</v>
-      </c>
-      <c r="E259" s="3" t="s">
-        <v>1214</v>
-      </c>
       <c r="F259" s="3" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="260" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A260" s="2" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D260" s="22" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="F260" s="11" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="261" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A261" s="2" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F261" s="2" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="262" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A262" s="2" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F262" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="263" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A263" s="2" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="F263" s="3" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="264" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A264" s="2" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="F264" s="7" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="265" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A265" s="2" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>186</v>
@@ -11377,193 +11512,193 @@
         <v>186</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="266" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A266" s="2" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F266" s="7" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="267" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A267" s="2" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E267" s="23" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="F267" s="2" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="268" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A268" s="2" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="D268" s="23" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="E268" s="23" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F268" s="7" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="269" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A269" s="2" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="F269" s="2" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="270" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A270" s="2" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="D270" s="23" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="E270" s="23" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="F270" s="11" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="271" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A271" s="2" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G271" s="2" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="272" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A272" s="2" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="273" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A273" s="2" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="F273" s="7" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="274" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A274" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>186</v>
@@ -11572,61 +11707,61 @@
         <v>186</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="F274" s="2" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="275" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A275" s="2" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="F275" s="11" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="276" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A276" s="2" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="277" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A277" s="2" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>186</v>
@@ -11635,53 +11770,53 @@
         <v>186</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="278" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A278" s="2" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="F278" s="2" t="s">
         <v>1317</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>1318</v>
-      </c>
-      <c r="D278" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E278" s="2" t="s">
-        <v>1314</v>
-      </c>
-      <c r="F278" s="2" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="279" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A279" s="2" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="280" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -11689,22 +11824,22 @@
         <v>323</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="281" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -11712,27 +11847,27 @@
         <v>366</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="282" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A282" s="2" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>186</v>
@@ -11741,16 +11876,16 @@
         <v>186</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="283" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -11764,16 +11899,16 @@
         <v>186</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="284" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -11781,65 +11916,65 @@
         <v>503</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C284" s="2" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="G284" s="2" t="s">
         <v>1347</v>
-      </c>
-      <c r="D284" s="2" t="s">
-        <v>1342</v>
-      </c>
-      <c r="E284" s="2" t="s">
-        <v>1343</v>
-      </c>
-      <c r="F284" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="G284" s="2" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="285" s="3" customFormat="1" customHeight="1" spans="1:7">
       <c r="A285" s="3" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="286" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A286" s="2" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="287" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -11847,104 +11982,104 @@
         <v>534</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="C287" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="D287" s="2" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E287" s="2" t="s">
-        <v>1360</v>
-      </c>
       <c r="F287" s="2" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="288" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A288" s="2" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F288" s="2" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="289" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A289" s="2" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="B289" s="2" t="s">
-        <v>1308</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D289" s="2" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E289" s="2" t="s">
-        <v>1367</v>
-      </c>
       <c r="F289" s="2" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="290" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A290" s="2" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="F290" s="2" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="291" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A291" s="2" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="F291" s="2" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="292" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A292" s="2" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>186</v>
@@ -11953,159 +12088,159 @@
         <v>186</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="F292" s="2" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="293" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A293" s="2" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F293" s="2" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="294" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A294" s="2" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="F294" s="2" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="295" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A295" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="F295" s="2" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="296" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A296" s="2" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>291</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F296" s="2" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="297" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A297" s="2" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="F297" s="2" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="298" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A298" s="2" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="F298" s="2" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="299" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A299" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="F299" s="2" t="s">
         <v>1418</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D299" s="2" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E299" s="2" t="s">
-        <v>1415</v>
-      </c>
-      <c r="F299" s="2" t="s">
-        <v>1416</v>
       </c>
     </row>
     <row r="300" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -12119,78 +12254,78 @@
         <v>347</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="F300" s="2" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="301" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A301" s="2" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="F301" s="2" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="302" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A302" s="2" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="303" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A303" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="B303" s="2" t="s">
-        <v>1436</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>1437</v>
-      </c>
-      <c r="D303" s="2" t="s">
-        <v>1438</v>
-      </c>
-      <c r="E303" s="2" t="s">
-        <v>1433</v>
-      </c>
       <c r="F303" s="2" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="304" s="3" customFormat="1" customHeight="1" spans="1:6">
       <c r="A304" s="3" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>504</v>
@@ -12199,18 +12334,18 @@
         <v>505</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="305" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A305" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>186</v>
@@ -12219,18 +12354,18 @@
         <v>186</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="306" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A306" s="2" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>186</v>
@@ -12239,33 +12374,33 @@
         <v>186</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
       <c r="F306" s="2" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="307" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A307" s="2" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F307" s="2" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="308" s="2" customFormat="1" customHeight="1" spans="1:7">
@@ -12279,101 +12414,101 @@
         <v>505</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F308" s="2" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="309" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A309" s="2" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="F309" s="2" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="310" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A310" s="2" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
       <c r="F310" s="2" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="311" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A311" s="2" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F311" s="2" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="312" s="2" customFormat="1" customHeight="1" spans="1:6">
       <c r="A312" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="D312" s="24" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="F312" s="2" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="313" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A313" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>318</v>
@@ -12382,16 +12517,16 @@
         <v>319</v>
       </c>
       <c r="D313" s="2" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>1472</v>
       </c>
-      <c r="E313" s="2" t="s">
-        <v>1470</v>
-      </c>
       <c r="F313" s="2" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="314" s="2" customFormat="1" customHeight="1" spans="1:6">
@@ -12399,16 +12534,16 @@
         <v>48</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>189</v>
@@ -12419,19 +12554,240 @@
         <v>48</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="C315" s="2" t="s">
+        <v>1480</v>
+      </c>
+      <c r="D315" s="2" t="s">
         <v>1478</v>
       </c>
-      <c r="D315" s="2" t="s">
-        <v>1476</v>
-      </c>
       <c r="E315" s="2" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>189</v>
+      </c>
+    </row>
+    <row r="316" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A316" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>1485</v>
+      </c>
+      <c r="G316" s="2" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="317" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A317" s="2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1488</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>1489</v>
+      </c>
+      <c r="G317" s="2" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="318" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A318" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="319" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A319" s="2" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="320" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A320" s="2" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G320" s="2" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="321" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A321" s="2" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G321" s="2" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="322" s="2" customFormat="1" customHeight="1" spans="1:6">
+      <c r="A322" s="2" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="323" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A323" s="2" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1514</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G323" s="2" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="324" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A324" s="2" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>1484</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="325" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A325" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>1523</v>
+      </c>
+      <c r="G325" s="2" t="s">
+        <v>1524</v>
       </c>
     </row>
   </sheetData>
